--- a/testdata/demo2.xlsx
+++ b/testdata/demo2.xlsx
@@ -111,13 +111,13 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/testdata/demo2.xlsx
+++ b/testdata/demo2.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsdoiel/src/github.com/caltechlibrary/xlquery/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="48320" windowHeight="21380" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,25 +53,25 @@
     <t>Gravitational Waves in a Shallow Compressible Liquid</t>
   </si>
   <si>
-    <t>http://authors.library.caltech.edu/69663/-http://authors.library.caltech.edu/69626/-http://authors.library.caltech.edu/69504/-http://authors.library.caltech.edu/69453/-http://authors.library.caltech.edu/69437/-http://authors.library.caltech.edu/69108/-http://authors.library.caltech.edu/69103/-http://authors.library.caltech.edu/68947/-http://authors.library.caltech.edu/68705/-http://authors.library.caltech.edu/68567/-http://authors.library.caltech.edu/68560/-http://authors.library.caltech.edu/67516/-http://authors.library.caltech.edu/67961/-http://authors.library.caltech.edu/67944/-http://authors.library.caltech.edu/67868/-http://authors.library.caltech.edu/67800/-http://authors.library.caltech.edu/67776/-http://authors.library.caltech.edu/67747/-http://authors.library.caltech.edu/67356/+    <t>http://authors.library.caltech.edu/69663/
+http://authors.library.caltech.edu/69626/
+http://authors.library.caltech.edu/69504/
+http://authors.library.caltech.edu/69453/
+http://authors.library.caltech.edu/69437/
+http://authors.library.caltech.edu/69108/
+http://authors.library.caltech.edu/69103/
+http://authors.library.caltech.edu/68947/
+http://authors.library.caltech.edu/68705/
+http://authors.library.caltech.edu/68567/
+http://authors.library.caltech.edu/68560/
+http://authors.library.caltech.edu/67516/
+http://authors.library.caltech.edu/67961/
+http://authors.library.caltech.edu/67944/
+http://authors.library.caltech.edu/67868/
+http://authors.library.caltech.edu/67800/
+http://authors.library.caltech.edu/67776/
+http://authors.library.caltech.edu/67747/
+http://authors.library.caltech.edu/67356/
 http://authors.library.caltech.edu/66774/</t>
   </si>
   <si>
@@ -70,19 +81,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,40 +97,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style=""/>
-      <right style=""/>
-      <top style=""/>
-      <bottom style=""/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,24 +461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.25" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="74.25" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="66.25" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -476,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -487,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="320" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -498,18 +506,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s"/>
-      <c r="C4" s="2" t="s"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
